--- a/test_models/t2.xlsx
+++ b/test_models/t2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
   <si>
     <t>email@emai.com</t>
   </si>
@@ -173,14 +173,74 @@
     <t>1,1,2,3,5,8,5,8,5,1,2,4</t>
   </si>
   <si>
-    <t>1,1,1,1,1,1,1,1,1,1,1,1</t>
+    <t>В браке</t>
+  </si>
+  <si>
+    <t>Барецкий</t>
+  </si>
+  <si>
+    <t>Емельяненко</t>
+  </si>
+  <si>
+    <t>Стас</t>
+  </si>
+  <si>
+    <t>stasyan@email.com</t>
+  </si>
+  <si>
+    <t>Не в браке</t>
+  </si>
+  <si>
+    <t>org4</t>
+  </si>
+  <si>
+    <t>14785369</t>
+  </si>
+  <si>
+    <t>123-456-789 15</t>
+  </si>
+  <si>
+    <t>Ростов</t>
+  </si>
+  <si>
+    <t>Английский:читает и может объясняться,Итальянский:читает и может объясняться,Французский:владеет свободно</t>
+  </si>
+  <si>
+    <t>016,017,018</t>
+  </si>
+  <si>
+    <t>Высшее</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Московский государственный Университет(МГУ),Диплом,II-II,123456,2008,Социолог,Социология,80112</t>
+  </si>
+  <si>
+    <t>Социолог</t>
+  </si>
+  <si>
+    <t>Повар</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1,1,1,0</t>
+  </si>
+  <si>
+    <t>2,2,2,2,2,2,2,2,2,2,2,2</t>
+  </si>
+  <si>
+    <t>Дочь,Барецкая Виктория Стасовна,2007</t>
+  </si>
+  <si>
+    <t>123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,14 +259,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="16"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -214,19 +267,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF6A8759"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -242,21 +303,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -538,134 +606,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI3"/>
+  <dimension ref="A1:AJ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH8" sqref="AH8"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" customWidth="1"/>
-    <col min="15" max="16" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="69.5703125" customWidth="1"/>
-    <col min="30" max="30" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="19.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="18.7109375" style="2" customWidth="1"/>
+    <col min="13" max="15" width="9.140625" style="2"/>
+    <col min="16" max="17" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="2"/>
+    <col min="19" max="19" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.140625" style="2"/>
+    <col min="22" max="22" width="69.5703125" style="2" customWidth="1"/>
+    <col min="23" max="30" width="9.140625" style="2"/>
+    <col min="31" max="31" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="9.140625" style="2"/>
+    <col min="35" max="35" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="4">
+      <c r="I1" s="4">
         <v>43883</v>
       </c>
-      <c r="I1">
+      <c r="J1" s="2">
         <v>55</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="N1">
+      <c r="O1" s="2">
         <v>0</v>
       </c>
-      <c r="O1" s="4">
+      <c r="P1" s="4">
         <v>43852</v>
       </c>
-      <c r="P1" s="4">
+      <c r="Q1" s="4">
         <v>32895</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="R1">
+      <c r="S1" s="2">
         <v>42432712412</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="T1">
+      <c r="U1" s="2">
         <v>1</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="Y1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AA1" s="5">
+      <c r="AB1" s="9">
         <v>23461</v>
       </c>
-      <c r="AD1" s="4">
+      <c r="AE1" s="4">
         <v>43487</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AF1">
+      <c r="AG1" s="2">
         <v>2</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AH1" s="9">
+      <c r="AI1" s="10">
         <v>1234123456</v>
       </c>
-      <c r="AI1" s="4">
+      <c r="AJ1" s="4">
         <v>32895</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -677,96 +757,99 @@
       <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>43884</v>
       </c>
-      <c r="I2">
+      <c r="J2" s="2">
         <v>56</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="N2">
+      <c r="O2" s="2">
         <v>1</v>
       </c>
-      <c r="O2" s="4">
+      <c r="P2" s="4">
         <v>43853</v>
       </c>
-      <c r="P2" s="4">
+      <c r="Q2" s="4">
         <v>32896</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="R2">
+      <c r="S2" s="2">
         <v>32456789</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="T2">
+      <c r="U2" s="2">
         <v>1</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="X2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="Y2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Z2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AA2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AA2" s="5">
+      <c r="AB2" s="9">
         <v>23461</v>
       </c>
-      <c r="AD2" s="4">
+      <c r="AE2" s="4">
         <v>43488</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AF2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AF2">
+      <c r="AG2" s="2">
         <v>2</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AH2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AH2" s="9">
+      <c r="AI2" s="10">
         <v>1234123456</v>
       </c>
-      <c r="AI2" s="4">
+      <c r="AJ2" s="4">
         <v>32896</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -778,95 +861,208 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>43885</v>
       </c>
-      <c r="I3">
+      <c r="J3" s="2">
         <v>57</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="N3">
+      <c r="O3" s="2">
         <v>2</v>
       </c>
-      <c r="O3" s="4">
+      <c r="P3" s="4">
         <v>43854</v>
       </c>
-      <c r="P3" s="4">
+      <c r="Q3" s="4">
         <v>32897</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="R3">
+      <c r="S3" s="2">
         <v>347878333</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="T3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="T3">
+      <c r="U3" s="2">
         <v>1</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="W3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="X3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="Y3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="Z3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="AA3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AA3" s="5">
+      <c r="AB3" s="9">
         <v>23461</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC3">
+      <c r="AD3" s="2">
         <v>23458</v>
       </c>
-      <c r="AD3" s="4">
+      <c r="AE3" s="4">
         <v>43489</v>
       </c>
-      <c r="AE3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF3">
+      <c r="AF3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG3" s="2">
         <v>2</v>
       </c>
-      <c r="AG3" s="5" t="s">
+      <c r="AH3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AH3" s="9">
+      <c r="AI3" s="10">
         <v>1234123456</v>
       </c>
-      <c r="AI3" s="4">
+      <c r="AJ3" s="4">
         <v>32897</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="4">
+        <v>43886</v>
+      </c>
+      <c r="J4" s="2">
+        <v>58</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="2">
+        <v>3</v>
+      </c>
+      <c r="P4" s="4">
+        <v>43855</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>33018</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="S4" s="1">
+        <v>47152543</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" s="2">
+        <v>1</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="W4" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="X4" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z4" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB4" s="9">
+        <v>12345</v>
+      </c>
+      <c r="AC4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>14725</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>43490</v>
+      </c>
+      <c r="AF4" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI4" s="10">
+        <v>1234123456</v>
+      </c>
+      <c r="AJ4" s="4">
+        <v>32898</v>
       </c>
     </row>
   </sheetData>
@@ -874,8 +1070,9 @@
     <hyperlink ref="A1" r:id="rId1"/>
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/test_models/t2.xlsx
+++ b/test_models/t2.xlsx
@@ -606,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ4"/>
+  <dimension ref="A1:AL4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,25 +619,25 @@
     <col min="3" max="3" width="19.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="28.5703125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="18.7109375" style="2" customWidth="1"/>
-    <col min="13" max="15" width="9.140625" style="2"/>
-    <col min="16" max="17" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="2"/>
-    <col min="19" max="19" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.140625" style="2"/>
-    <col min="22" max="22" width="69.5703125" style="2" customWidth="1"/>
-    <col min="23" max="30" width="9.140625" style="2"/>
-    <col min="31" max="31" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="34" width="9.140625" style="2"/>
-    <col min="35" max="35" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="9.140625" style="2"/>
+    <col min="9" max="10" width="9.140625" style="2"/>
+    <col min="11" max="11" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="2"/>
+    <col min="14" max="14" width="18.7109375" style="2" customWidth="1"/>
+    <col min="15" max="17" width="9.140625" style="2"/>
+    <col min="18" max="19" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="2"/>
+    <col min="21" max="21" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.140625" style="2"/>
+    <col min="24" max="24" width="69.5703125" style="2" customWidth="1"/>
+    <col min="25" max="32" width="9.140625" style="2"/>
+    <col min="33" max="33" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="9.140625" style="2"/>
+    <col min="37" max="37" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -653,95 +653,101 @@
       <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1">
+        <v>15500</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="4">
+      <c r="K1" s="4">
         <v>43883</v>
       </c>
-      <c r="J1" s="2">
+      <c r="L1" s="2">
         <v>55</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="2">
+      <c r="Q1" s="2">
         <v>0</v>
       </c>
-      <c r="P1" s="4">
+      <c r="R1" s="4">
         <v>43852</v>
       </c>
-      <c r="Q1" s="4">
+      <c r="S1" s="4">
         <v>32895</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="S1" s="2">
+      <c r="U1" s="2">
         <v>42432712412</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="2">
+      <c r="W1" s="2">
         <v>1</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AB1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AB1" s="9">
+      <c r="AD1" s="9">
         <v>23461</v>
       </c>
-      <c r="AE1" s="4">
+      <c r="AG1" s="4">
         <v>43487</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AH1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AI1" s="2">
         <v>2</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AI1" s="10">
+      <c r="AK1" s="10">
         <v>1234123456</v>
       </c>
-      <c r="AJ1" s="4">
+      <c r="AL1" s="4">
         <v>32895</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -757,95 +763,101 @@
       <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>35450</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="4">
+      <c r="K2" s="4">
         <v>43884</v>
       </c>
-      <c r="J2" s="2">
+      <c r="L2" s="2">
         <v>56</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="2">
+      <c r="Q2" s="2">
         <v>1</v>
       </c>
-      <c r="P2" s="4">
+      <c r="R2" s="4">
         <v>43853</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="S2" s="4">
         <v>32896</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="2">
+      <c r="U2" s="2">
         <v>32456789</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="2">
+      <c r="W2" s="2">
         <v>1</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="Z2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="AB2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AC2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AB2" s="9">
+      <c r="AD2" s="9">
         <v>23461</v>
       </c>
-      <c r="AE2" s="4">
+      <c r="AG2" s="4">
         <v>43488</v>
       </c>
-      <c r="AF2" s="9" t="s">
+      <c r="AH2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="AI2" s="2">
         <v>2</v>
       </c>
-      <c r="AH2" s="9" t="s">
+      <c r="AJ2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AI2" s="10">
+      <c r="AK2" s="10">
         <v>1234123456</v>
       </c>
-      <c r="AJ2" s="4">
+      <c r="AL2" s="4">
         <v>32896</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -861,101 +873,101 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="4">
+      <c r="K3" s="4">
         <v>43885</v>
       </c>
-      <c r="J3" s="2">
+      <c r="L3" s="2">
         <v>57</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="N3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="P3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="2">
+      <c r="Q3" s="2">
         <v>2</v>
       </c>
-      <c r="P3" s="4">
+      <c r="R3" s="4">
         <v>43854</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="S3" s="4">
         <v>32897</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="T3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="S3" s="2">
+      <c r="U3" s="2">
         <v>347878333</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="V3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="U3" s="2">
+      <c r="W3" s="2">
         <v>1</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="Y3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="Z3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="Y3" s="6" t="s">
+      <c r="AA3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Z3" s="9" t="s">
+      <c r="AB3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AA3" s="9" t="s">
+      <c r="AC3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AB3" s="9">
+      <c r="AD3" s="9">
         <v>23461</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AD3" s="2">
+      <c r="AF3" s="2">
         <v>23458</v>
       </c>
-      <c r="AE3" s="4">
+      <c r="AG3" s="4">
         <v>43489</v>
       </c>
-      <c r="AF3" s="9" t="s">
+      <c r="AH3" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AG3" s="2">
+      <c r="AI3" s="2">
         <v>2</v>
       </c>
-      <c r="AH3" s="9" t="s">
+      <c r="AJ3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AI3" s="10">
+      <c r="AK3" s="10">
         <v>1234123456</v>
       </c>
-      <c r="AJ3" s="4">
+      <c r="AL3" s="4">
         <v>32897</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>53</v>
       </c>
@@ -971,97 +983,103 @@
       <c r="E4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>10000</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="4">
+      <c r="K4" s="4">
         <v>43886</v>
       </c>
-      <c r="J4" s="2">
+      <c r="L4" s="2">
         <v>58</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="M4" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="P4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="2">
+      <c r="Q4" s="2">
         <v>3</v>
       </c>
-      <c r="P4" s="4">
+      <c r="R4" s="4">
         <v>43855</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="S4" s="4">
         <v>33018</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="T4" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S4" s="1">
+      <c r="U4" s="1">
         <v>47152543</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="V4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="U4" s="2">
+      <c r="W4" s="2">
         <v>1</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="W4" s="14" t="s">
+      <c r="Y4" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="X4" s="13" t="s">
+      <c r="Z4" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="Y4" s="6" t="s">
+      <c r="AA4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="Z4" s="13" t="s">
+      <c r="AB4" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AB4" s="9">
+      <c r="AD4" s="9">
         <v>12345</v>
       </c>
-      <c r="AC4" s="13" t="s">
+      <c r="AE4" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AF4" s="2">
         <v>14725</v>
       </c>
-      <c r="AE4" s="4">
+      <c r="AG4" s="4">
         <v>43490</v>
       </c>
-      <c r="AF4" s="13" t="s">
+      <c r="AH4" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AI4" s="2">
         <v>2</v>
       </c>
-      <c r="AH4" s="13" t="s">
+      <c r="AJ4" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="AI4" s="10">
+      <c r="AK4" s="10">
         <v>1234123456</v>
       </c>
-      <c r="AJ4" s="4">
+      <c r="AL4" s="4">
         <v>32898</v>
       </c>
     </row>
